--- a/src/assets/excelDocument/template.xlsx
+++ b/src/assets/excelDocument/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Price</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +528,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>

--- a/src/assets/excelDocument/template.xlsx
+++ b/src/assets/excelDocument/template.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my work\Apis\AMCoderUi\AMCoder\src\assets\excelDocument\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7635"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Price</t>
   </si>
@@ -52,6 +47,54 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Intubation of small intestine</t>
+  </si>
+  <si>
+    <t>Endosc exam sm intestine via laparotomy</t>
+  </si>
+  <si>
+    <t>Enterocolostomy</t>
+  </si>
+  <si>
+    <t>Closure other stoma of small intestine</t>
+  </si>
+  <si>
+    <t>Closure of fistula of small intestine</t>
+  </si>
+  <si>
+    <t>Colonosc to caecum w tattooing</t>
+  </si>
+  <si>
+    <t>Endoscopic dest lesion or tis large int</t>
+  </si>
+  <si>
+    <t>Fibreoptic colonoscopy to caecum w PP</t>
+  </si>
+  <si>
+    <t>40903-00-01</t>
+  </si>
+  <si>
+    <t>40903-00-02</t>
+  </si>
+  <si>
+    <t>40903-00-03</t>
+  </si>
+  <si>
+    <t>40903-00-04</t>
+  </si>
+  <si>
+    <t>40903-00-05</t>
+  </si>
+  <si>
+    <t>40903-00-06</t>
+  </si>
+  <si>
+    <t>40903-00-07</t>
+  </si>
+  <si>
+    <t>40903-00-08</t>
   </si>
 </sst>
 </file>
@@ -69,7 +112,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,7 +126,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -155,6 +198,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,9 +208,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,7 +501,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,49 +583,120 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
